--- a/database/teaching.xlsx
+++ b/database/teaching.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -68,10 +68,10 @@
     <t>Summer school</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>short description</t>
+    <t>R, IRT, psychometrics, modeling</t>
+  </si>
+  <si>
+    <t>Discover algorithms in item response theory to design shorter, adaptive, and reliable tests</t>
   </si>
   <si>
     <t>https://ottaviae.github.io/beyond-summer-school/algorithms/algortithms.html#/title-slide</t>
@@ -89,6 +89,12 @@
     <t>Corso dottorato</t>
   </si>
   <si>
+    <t>Python, programming</t>
+  </si>
+  <si>
+    <t>Introductory Python for data science, hands-on basics, tools setup, core syntax, key libraries</t>
+  </si>
+  <si>
     <t>https://enricotoffalini.github.io/Basics-Python/</t>
   </si>
   <si>
@@ -98,6 +104,12 @@
     <t>Filippo Gambarota</t>
   </si>
   <si>
+    <t>R, GLM, modeling</t>
+  </si>
+  <si>
+    <t>PhD-level Generalized Linear Models course, R-package materials, labs, slides for applied statistical modeling</t>
+  </si>
+  <si>
     <t>https://stat-teaching.github.io/GLMphd/</t>
   </si>
   <si>
@@ -107,9 +119,21 @@
     <t>Tommaso Feraco</t>
   </si>
   <si>
+    <t>R, SEM, psychometrics, modeling</t>
+  </si>
+  <si>
+    <t>PhD-level Structural Equation Modeling, theory, estimation, and applied modeling with observed and latent variables</t>
+  </si>
+  <si>
     <t>Basics of R for Data Science</t>
   </si>
   <si>
+    <t>R, programming</t>
+  </si>
+  <si>
+    <t>Foundational R programming for PhD students, data structures, control flow, and core statistical tools</t>
+  </si>
+  <si>
     <t>https://enricotoffalini.github.io/Basics-R/</t>
   </si>
   <si>
@@ -128,6 +152,9 @@
     <t>Ciclo Seminari</t>
   </si>
   <si>
+    <t>Basi di R, logica della programmazione, strutture di dati, e come scrivere codice</t>
+  </si>
+  <si>
     <t>https://arca-dpss.github.io/course-R-2425/</t>
   </si>
   <si>
@@ -137,6 +164,12 @@
     <t>Pre-conference workshop</t>
   </si>
   <si>
+    <t>R, modeling</t>
+  </si>
+  <si>
+    <t>Evidence-accumulation models, modeling perceptual judgments with both response times and choice data</t>
+  </si>
+  <si>
     <t>https://mar-cald.github.io/eam-workshop/eam-home.html</t>
   </si>
   <si>
@@ -144,6 +177,12 @@
   </si>
   <si>
     <t>Ambra Perugini</t>
+  </si>
+  <si>
+    <t>R, Quarto, markdown</t>
+  </si>
+  <si>
+    <t>Competenze base di RMarkdown e Quarto, creare documenti PDF, HTML e di presentazione dal codice</t>
   </si>
   <si>
     <t>https://ambraperugini.github.io/Quarto_ARCA/</t>
@@ -214,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -235,9 +274,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -565,12 +601,14 @@
       <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="J3" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -578,10 +616,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3">
         <v>15.0</v>
@@ -599,13 +637,13 @@
         <v>22</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -613,10 +651,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3">
         <v>20.0</v>
@@ -633,8 +671,11 @@
       <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="J5" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -642,7 +683,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -662,12 +703,14 @@
       <c r="H6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="J6" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -675,34 +718,34 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3">
         <v>20.0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G7" s="3">
         <v>10.0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -710,10 +753,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3">
         <v>3.0</v>
@@ -728,14 +771,16 @@
         <v>30.0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="J8" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -743,32 +788,34 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3">
         <v>20.0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G9" s="3">
         <v>10.0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="J9" s="3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>

--- a/database/teaching.xlsx
+++ b/database/teaching.xlsx
@@ -6,19 +6,19 @@
     <sheet state="visible" name="Foglio1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Foglio1!$A$1:$AC$999</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Foglio1!$A$1:$AC$998</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Pu2il2wZWajLqCaO+fiTEIhyBBAz39qzuuVzxeXPWmw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="VfAru/tHoKRoJNIkwPHAG/oIVmclyKGhPwjTMcxINPo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -173,10 +173,10 @@
     <t>https://mar-cald.github.io/eam-workshop/eam-home.html</t>
   </si>
   <si>
-    <t>RMarkdown: Analisi riproducibili, presentazioni, report... e molto altro</t>
-  </si>
-  <si>
-    <t>Ambra Perugini</t>
+    <t>RMarkdown. Analisi riproducibili, presentazioni, report... e molto altro</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>R, Quarto, markdown</t>
@@ -185,14 +185,23 @@
     <t>Competenze base di RMarkdown e Quarto, creare documenti PDF, HTML e di presentazione dal codice</t>
   </si>
   <si>
-    <t>https://ambraperugini.github.io/Quarto_ARCA/</t>
+    <t>Evaluation of outliers and influential cases in a multivariate perspective</t>
+  </si>
+  <si>
+    <t>Gianmarco Altoè</t>
+  </si>
+  <si>
+    <t>Statistics, outliers, influential cases, R</t>
+  </si>
+  <si>
+    <t>Outliers (i.e., single observations that are distant from the others based on the variables of interest) and influential cases (i.e., single observations with a huge impact on the estimated parameters of a model) are ubiquitous in statistical analyses in psychology. In this course, based on practical examples, we will see how to define, identify, and handle univariate and multivariate outliers as well as influential cases. On a practical level, various statistical methods will be presented using the R software. These methods can easily be extended to other statistical software as well.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -227,24 +236,13 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -273,7 +271,7 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -783,11 +781,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9">
       <c r="A9" s="3">
         <v>8.0</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -811,14 +809,43 @@
       <c r="I9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="6" t="s">
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="3"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -1807,9 +1834,8 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$AC$999"/>
+  <autoFilter ref="$A$1:$AC$998"/>
   <hyperlinks>
     <hyperlink r:id="rId1" location="/title-slide" ref="K2"/>
     <hyperlink r:id="rId2" ref="K3"/>
@@ -1817,11 +1843,10 @@
     <hyperlink r:id="rId4" ref="K6"/>
     <hyperlink r:id="rId5" ref="K7"/>
     <hyperlink r:id="rId6" ref="K8"/>
-    <hyperlink r:id="rId7" ref="K9"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/database/teaching.xlsx
+++ b/database/teaching.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>RMarkdown. Analisi riproducibili, presentazioni, report... e molto altro</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>R, Quarto, markdown</t>
@@ -491,11 +488,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="6.25"/>
-    <col customWidth="1" min="2" max="2" width="36.63"/>
+    <col customWidth="1" min="2" max="2" width="58.38"/>
     <col customWidth="1" min="3" max="3" width="17.75"/>
     <col customWidth="1" min="4" max="4" width="7.63"/>
     <col customWidth="1" min="5" max="5" width="27.25"/>
-    <col customWidth="1" min="6" max="6" width="7.63"/>
+    <col customWidth="1" min="6" max="6" width="11.88"/>
     <col customWidth="1" min="7" max="7" width="14.63"/>
     <col customWidth="1" min="8" max="8" width="21.88"/>
     <col customWidth="1" min="9" max="9" width="13.88"/>
@@ -788,9 +785,7 @@
       <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3">
         <v>20.0</v>
       </c>
@@ -807,10 +802,10 @@
         <v>43</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -818,10 +813,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D10" s="3">
         <v>5.0</v>
@@ -839,10 +834,10 @@
         <v>22</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -1836,6 +1831,11 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <autoFilter ref="$A$1:$AC$998"/>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F10">
+      <formula1>"Inglese,Italiano"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" location="/title-slide" ref="K2"/>
     <hyperlink r:id="rId2" ref="K3"/>

--- a/database/teaching.xlsx
+++ b/database/teaching.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Ciclo Seminari</t>
   </si>
   <si>
-    <t>IRT</t>
+    <t>IRT, psychometrics</t>
   </si>
   <si>
     <t xml:space="preserve"> The aim of the course is to give an overview on IRT models, with a focus on IRT models for dichotomous responses</t>
@@ -107,7 +107,7 @@
     <t>Filippo Gambarota</t>
   </si>
   <si>
-    <t>R, GLM, modeling</t>
+    <t>R, GLM, modeling, statistics</t>
   </si>
   <si>
     <t>PhD-level Generalized Linear Models course, R-package materials, labs, slides for applied statistical modeling</t>
@@ -206,7 +206,7 @@
     <t>Massimiliano Pastore</t>
   </si>
   <si>
-    <t xml:space="preserve">statistics, reproducibility crisis </t>
+    <t xml:space="preserve">statistics, replicability crisis </t>
   </si>
   <si>
     <t>Key challenges in psychological research statistics, statistical significance issues, replicability and reproducibility crises, and new strategies to enhance research quality</t>
@@ -239,6 +239,9 @@
     <t>shiny</t>
   </si>
   <si>
+    <t>Corso introduttivo a shiny</t>
+  </si>
+  <si>
     <t>https://psicostat.github.io/shine-bright/</t>
   </si>
   <si>
@@ -270,6 +273,18 @@
   </si>
   <si>
     <t>https://ambraperugini.github.io/Quarto_ARCA/</t>
+  </si>
+  <si>
+    <t>Basics of Power and Design Analysis</t>
+  </si>
+  <si>
+    <t>power analysis, design analysis, R</t>
+  </si>
+  <si>
+    <t>Power and design analysis with R to plan sample sizes and enhance research replicability</t>
+  </si>
+  <si>
+    <t>https://osf.io/385xe/</t>
   </si>
 </sst>
 </file>
@@ -575,9 +590,9 @@
     <col customWidth="1" min="5" max="5" width="7.63"/>
     <col customWidth="1" min="6" max="6" width="27.25"/>
     <col customWidth="1" min="7" max="7" width="11.88"/>
-    <col customWidth="1" min="8" max="8" width="14.63"/>
-    <col customWidth="1" min="9" max="9" width="21.88"/>
-    <col customWidth="1" min="10" max="10" width="13.88"/>
+    <col customWidth="1" min="8" max="8" width="9.13"/>
+    <col customWidth="1" min="9" max="9" width="16.63"/>
+    <col customWidth="1" min="10" max="10" width="28.5"/>
     <col customWidth="1" min="11" max="11" width="23.5"/>
     <col customWidth="1" min="12" max="12" width="71.13"/>
     <col customWidth="1" min="13" max="30" width="7.63"/>
@@ -1096,8 +1111,11 @@
       <c r="J14" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="K14" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="L14" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
@@ -1108,7 +1126,7 @@
         <v>1.0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>13</v>
@@ -1126,16 +1144,16 @@
         <v>40.0</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
@@ -1146,10 +1164,10 @@
         <v>1.0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E16" s="4">
         <v>20.0</v>
@@ -1167,18 +1185,52 @@
         <v>16</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="8"/>
@@ -5099,7 +5151,7 @@
   </sheetData>
   <autoFilter ref="$A$1:$AD$996"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G17">
       <formula1>"Inglese,Italiano"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5115,10 +5167,11 @@
     <hyperlink r:id="rId9" ref="L14"/>
     <hyperlink r:id="rId10" ref="L15"/>
     <hyperlink r:id="rId11" ref="L16"/>
+    <hyperlink r:id="rId12" ref="L17"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/database/teaching.xlsx
+++ b/database/teaching.xlsx
@@ -155,7 +155,7 @@
     <t>https://arca-dpss.github.io/course-R-2425/</t>
   </si>
   <si>
-    <t>A practical introduction to evidence accumulation models</t>
+    <t>A practical introduction to Evidence Accumulation Models</t>
   </si>
   <si>
     <t>Pre-conference workshop</t>
@@ -245,7 +245,7 @@
     <t>https://psicostat.github.io/shine-bright/</t>
   </si>
   <si>
-    <t>Introduction to R and shiny</t>
+    <t>RcouRse - Introduction to R and shiny</t>
   </si>
   <si>
     <t>TquanT Seminars (Erasmus +)</t>

--- a/database/teaching.xlsx
+++ b/database/teaching.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="99">
   <si>
     <t>id</t>
   </si>
@@ -74,7 +74,7 @@
     <t>IRT, psychometrics</t>
   </si>
   <si>
-    <t xml:space="preserve"> The aim of the course is to give an overview on IRT models, with a focus on IRT models for dichotomous responses</t>
+    <t>The aim of the course is to give an overview on IRT models, with a focus on IRT models for dichotomous responses</t>
   </si>
   <si>
     <t>https://ottaviae.github.io/IRTintro/</t>
@@ -285,6 +285,36 @@
   </si>
   <si>
     <t>https://osf.io/385xe/</t>
+  </si>
+  <si>
+    <t>Multiverse approches in multilab contexts</t>
+  </si>
+  <si>
+    <t>Giulia Calignano</t>
+  </si>
+  <si>
+    <t>PhD students, Researchers</t>
+  </si>
+  <si>
+    <t>data processing, phylosophy of science, R, statistics</t>
+  </si>
+  <si>
+    <t>An introductory workshop on applying multiverse analysis to multilab research and its implementation in the MB2P project</t>
+  </si>
+  <si>
+    <t>https://caligiu.github.io/MultiverseWorkshopMB/</t>
+  </si>
+  <si>
+    <t>Cognitive Pupillometry with OpenSesame and R</t>
+  </si>
+  <si>
+    <t>experiment design, measurment, data processing, data analysis</t>
+  </si>
+  <si>
+    <t>A course on using cognitive pupillometry to design experiments and analyze pupil data across the lifespan, with OpenSesame and R</t>
+  </si>
+  <si>
+    <t>https://caligiu.github.io/Pupillometry_ARCA2025/</t>
   </si>
 </sst>
 </file>
@@ -1233,12 +1263,80 @@
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="8"/>
@@ -5151,7 +5249,7 @@
   </sheetData>
   <autoFilter ref="$A$1:$AD$996"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G17">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G19">
       <formula1>"Inglese,Italiano"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5168,10 +5266,12 @@
     <hyperlink r:id="rId10" ref="L15"/>
     <hyperlink r:id="rId11" ref="L16"/>
     <hyperlink r:id="rId12" ref="L17"/>
+    <hyperlink r:id="rId13" ref="L18"/>
+    <hyperlink r:id="rId14" ref="L19"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>